--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zayd\Desktop\Spring 2025\cmp 466 machine learning\Project\ML-Calorie-Predictor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zayd_\Documents\GitHub\ML-Calorie-Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CA6C1-46B0-416C-8FBD-213AA17AFAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0797E-DB80-4E2C-BA78-49E196B9416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -87,13 +87,28 @@
     <t>Decision Tree Regressor(max_depth=10)</t>
   </si>
   <si>
-    <t>Decision Tree Regressor(max_depth=5,min_samples_split=4)</t>
-  </si>
-  <si>
-    <t>Decision Tree Regressor(max_depth=5,min_samples_split=7)</t>
-  </si>
-  <si>
-    <t>Decision Tree Regressor(max_depth=5,min_samples_split=15)</t>
+    <t>Decision Tree Regressor(max_depth=10,min_samples_split=4)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,min_samples_split=7)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,min_samples_split=15)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,ccp_alpha=0.02)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,ccp_alpha=0.05)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,ccp_alpha=0.1)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=10,min_samples_split=15,ccp_alpha=0.05)</t>
+  </si>
+  <si>
+    <t>Decision Tree Regressor(max_depth=15)</t>
   </si>
 </sst>
 </file>
@@ -101,12 +116,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="171" formatCode="0.00000000"/>
-    <numFmt numFmtId="172" formatCode="0.0000000"/>
-    <numFmt numFmtId="174" formatCode="0.00000"/>
-    <numFmt numFmtId="175" formatCode="0.0000"/>
-    <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -156,22 +171,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="256" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
     <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
@@ -690,31 +705,424 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.99276596653980398</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98090836139861803</v>
+      </c>
+      <c r="D5" s="1">
+        <v>36.555052122268798</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8938.3556229116202</v>
+      </c>
+      <c r="F5" s="1">
+        <v>94.542877166456094</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.98090836139861803</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.022162</v>
+      </c>
+      <c r="I5" s="1">
+        <v>9.0690000000000007E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.99244900000000003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.98246199999999995</v>
+      </c>
+      <c r="L5" s="1">
+        <v>32.632686999999997</v>
+      </c>
+      <c r="M5" s="1">
+        <v>36.261937000000003</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3506.4615079999999</v>
+      </c>
+      <c r="O5" s="1">
+        <v>8121.2749999999996</v>
+      </c>
+      <c r="P5" s="1">
+        <v>59.198318999999998</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>90.006468999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>21</v>
       </c>
+      <c r="B6" s="1">
+        <v>0.99129538516809201</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98387172467635098</v>
+      </c>
+      <c r="D6" s="1">
+        <v>36.227988252262698</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7714.7297398671499</v>
+      </c>
+      <c r="F6" s="1">
+        <v>87.833534255813404</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.98387172467635098</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.95137000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1.0548999999999999E-2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.99158400000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.982819</v>
+      </c>
+      <c r="L6" s="1">
+        <v>32.931322999999999</v>
+      </c>
+      <c r="M6" s="1">
+        <v>36.260086000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3907.0472370000002</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7953.2089569999998</v>
+      </c>
+      <c r="P6" s="1">
+        <v>62.503725000000003</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>89.094504999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.98974663718755795</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.98616123152912405</v>
+      </c>
+      <c r="D7" s="1">
+        <v>36.035902464978101</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6673.1539506499603</v>
+      </c>
+      <c r="F7" s="1">
+        <v>81.689374772059296</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.98616123152912405</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.075385</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9.9900000000000006E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.990066</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.98176099999999999</v>
+      </c>
+      <c r="L7" s="1">
+        <v>33.436852000000002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>36.388789000000003</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4611.2634420000004</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8432.2094309999993</v>
+      </c>
+      <c r="P7" s="1">
+        <v>67.895045999999994</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>91.722954999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.99297742390948696</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.98220543094653801</v>
+      </c>
+      <c r="D8" s="1">
+        <v>35.763593200558702</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8246.8571661388596</v>
+      </c>
+      <c r="F8" s="1">
+        <v>90.812208243929703</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.98220543094653801</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.98360400000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>8.5749999999999993E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.992842</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.98207299999999997</v>
+      </c>
+      <c r="L8" s="1">
+        <v>32.418729999999996</v>
+      </c>
+      <c r="M8" s="1">
+        <v>36.285276000000003</v>
+      </c>
+      <c r="N8" s="1">
+        <v>3324.5083060000002</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8288.6647269999994</v>
+      </c>
+      <c r="P8" s="1">
+        <v>57.651511999999997</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>90.883095999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.992871523821241</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.98533956235230502</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36.219574739958603</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7067.0050465592303</v>
+      </c>
+      <c r="F9" s="1">
+        <v>84.065480707358304</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.98533956235230502</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.0223100000000001</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9.1739999999999999E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.992842</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.98180199999999995</v>
+      </c>
+      <c r="L9" s="1">
+        <v>32.422449999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <v>36.319977999999999</v>
+      </c>
+      <c r="N9" s="1">
+        <v>3324.7270410000001</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8406.338737</v>
+      </c>
+      <c r="P9" s="1">
+        <v>57.653416999999997</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>91.599462000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.99274646237863495</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.98545604743722703</v>
+      </c>
+      <c r="D10" s="1">
+        <v>36.224650834154502</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7051.66307182735</v>
+      </c>
+      <c r="F10" s="1">
+        <v>83.974180983367404</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.98545604743722703</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0736270000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1.0899000000000001E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.99284099999999997</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.98135899999999998</v>
+      </c>
+      <c r="L10" s="1">
+        <v>32.429071</v>
+      </c>
+      <c r="M10" s="1">
+        <v>36.368758</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3325.306227</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8623.0913199999995</v>
+      </c>
+      <c r="P10" s="1">
+        <v>57.658448</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>92.590243999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.99067336353155</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.982272086107709</v>
+      </c>
+      <c r="D11" s="1">
+        <v>35.8912411906202</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8032.6558173490303</v>
+      </c>
+      <c r="F11" s="1">
+        <v>89.625084755045194</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.982272086107709</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.140069</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.0381E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.990066</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.98179899999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>33.436852000000002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>36.378923</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4611.2634420000004</v>
+      </c>
+      <c r="O11" s="1">
+        <v>8416.7234700000008</v>
+      </c>
+      <c r="P11" s="1">
+        <v>67.895045999999994</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>91.641559999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.99820047815544999</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.98447399845865602</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23.127757946627298</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7113.2407227834101</v>
+      </c>
+      <c r="F12" s="1">
+        <v>84.340030369827403</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.98447399845865602</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.4556469999999999</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1.3801000000000001E-2</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.99826800000000004</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.98211899999999996</v>
+      </c>
+      <c r="L12" s="1">
+        <v>12.939382</v>
+      </c>
+      <c r="M12" s="1">
+        <v>23.548427</v>
+      </c>
+      <c r="N12" s="1">
+        <v>804.32724599999995</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8254.868966</v>
+      </c>
+      <c r="P12" s="1">
+        <v>28.335267999999999</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>90.765975999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zayd_\Documents\GitHub\ML-Calorie-Predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE0797E-DB80-4E2C-BA78-49E196B9416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A066CB-FFBB-4889-B466-1DB06ED1F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,13 +115,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0.00000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000000"/>
+  <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -165,28 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,74 +448,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70.5703125" customWidth="1"/>
-    <col min="2" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -546,52 +527,52 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>0.99318720168227503</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.99539986808262704</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>13.823859062779</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>2247.16551153314</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>47.4042773548247</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>0.99539986808262704</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>4.3948599999999997E-2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>5.6453700000000002E-3</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>0.99366480000000001</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="2">
         <v>136.2877</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <v>13.88157</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="2">
         <v>31.06127</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="2">
         <v>2941.0920000000001</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="2">
         <v>68255220</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="2">
         <v>54.227460000000001</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="2">
         <v>3738.2579999999998</v>
       </c>
     </row>
@@ -599,52 +580,52 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>0.94530189294477196</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.93886065890764003</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>96.551612204221101</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>26937.082355703598</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>164.125203292192</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>0.93886065890764003</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>0.43447200000000002</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>5.2009999999999999E-3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>0.94394699999999998</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>0.937612</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>96.449904000000004</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="2">
         <v>97.500669000000002</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>26025.188636999999</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="2">
         <v>28943.835792000002</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="2">
         <v>161.317486</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>169.95816199999999</v>
       </c>
     </row>
@@ -652,52 +633,52 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>0.99245249375533995</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.98382602804738395</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>36.294641444674902</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>7664.8587745330296</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>87.549179176809105</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>0.98382602804738395</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>0.59152700000000003</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>5.6820000000000004E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>0.992842</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <v>0.98224</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>32.416547999999999</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="2">
         <v>36.325825000000002</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>3324.4491469999998</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="2">
         <v>8229.3891939999994</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="2">
         <v>57.650998999999999</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>90.572025999999994</v>
       </c>
     </row>
@@ -705,52 +686,52 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>0.99276596653980398</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.98090836139861803</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>36.555052122268798</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>8938.3556229116202</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>94.542877166456094</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>0.98090836139861803</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>1.022162</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>9.0690000000000007E-3</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>0.99244900000000003</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <v>0.98246199999999995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="2">
         <v>32.632686999999997</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="2">
         <v>36.261937000000003</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>3506.4615079999999</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="2">
         <v>8121.2749999999996</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="2">
         <v>59.198318999999998</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>90.006468999999996</v>
       </c>
     </row>
@@ -758,52 +739,52 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.99129538516809201</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.98387172467635098</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>36.227988252262698</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>7714.7297398671499</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>87.833534255813404</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.98387172467635098</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.95137000000000005</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>1.0548999999999999E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>0.99158400000000002</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>0.982819</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>32.931322999999999</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="2">
         <v>36.260086000000001</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>3907.0472370000002</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="2">
         <v>7953.2089569999998</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="2">
         <v>62.503725000000003</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>89.094504999999998</v>
       </c>
     </row>
@@ -811,52 +792,52 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>0.98974663718755795</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.98616123152912405</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>36.035902464978101</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>6673.1539506499603</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>81.689374772059296</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>0.98616123152912405</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>1.075385</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>9.9900000000000006E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>0.990066</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <v>0.98176099999999999</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2">
         <v>33.436852000000002</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="2">
         <v>36.388789000000003</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>4611.2634420000004</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="2">
         <v>8432.2094309999993</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="2">
         <v>67.895045999999994</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>91.722954999999999</v>
       </c>
     </row>
@@ -864,52 +845,52 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>0.99297742390948696</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.98220543094653801</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>35.763593200558702</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>8246.8571661388596</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>90.812208243929703</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>0.98220543094653801</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>0.98360400000000003</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>8.5749999999999993E-3</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>0.992842</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <v>0.98207299999999997</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="2">
         <v>32.418729999999996</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="2">
         <v>36.285276000000003</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>3324.5083060000002</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="2">
         <v>8288.6647269999994</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="2">
         <v>57.651511999999997</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>90.883095999999995</v>
       </c>
     </row>
@@ -917,52 +898,52 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>0.992871523821241</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.98533956235230502</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>36.219574739958603</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>7067.0050465592303</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>84.065480707358304</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>0.98533956235230502</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>1.0223100000000001</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>9.1739999999999999E-3</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>0.992842</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>0.98180199999999995</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="2">
         <v>32.422449999999998</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="2">
         <v>36.319977999999999</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>3324.7270410000001</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="2">
         <v>8406.338737</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="2">
         <v>57.653416999999997</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>91.599462000000003</v>
       </c>
     </row>
@@ -970,52 +951,52 @@
       <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>0.99274646237863495</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.98545604743722703</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>36.224650834154502</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>7051.66307182735</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>83.974180983367404</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>0.98545604743722703</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>1.0736270000000001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>1.0899000000000001E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>0.99284099999999997</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>0.98135899999999998</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="2">
         <v>32.429071</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="2">
         <v>36.368758</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>3325.306227</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="2">
         <v>8623.0913199999995</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="2">
         <v>57.658448</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>92.590243999999998</v>
       </c>
     </row>
@@ -1023,52 +1004,52 @@
       <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>0.99067336353155</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.982272086107709</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>35.8912411906202</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>8032.6558173490303</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>89.625084755045194</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>0.982272086107709</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>1.140069</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>1.0381E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>0.990066</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>0.98179899999999998</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="2">
         <v>33.436852000000002</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="2">
         <v>36.378923</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>4611.2634420000004</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="2">
         <v>8416.7234700000008</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="2">
         <v>67.895045999999994</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <v>91.641559999999998</v>
       </c>
     </row>
@@ -1076,52 +1057,52 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>0.99820047815544999</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.98447399845865602</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>23.127757946627298</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>7113.2407227834101</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>84.340030369827403</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>0.98447399845865602</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>1.4556469999999999</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>1.3801000000000001E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>0.99826800000000004</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <v>0.98211899999999996</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="2">
         <v>12.939382</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="2">
         <v>23.548427</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>804.32724599999995</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="2">
         <v>8254.868966</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="2">
         <v>28.335267999999999</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>90.765975999999995</v>
       </c>
     </row>
